--- a/src/main/webapp/resources/template/구매요청양식.xlsx
+++ b/src/main/webapp/resources/template/구매요청양식.xlsx
@@ -23,14 +23,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="맑은 고딕"/>
+            <family val="3"/>
+            <charset val="129"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>다음과 같이 양식을 작성해주세요.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>제품명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -42,7 +64,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분류</t>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가(\)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가(\)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성 갤럭시북 Pro 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 시작으로 새로운 노트북 구매 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +132,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A6666"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A6666"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -230,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +310,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -252,31 +346,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -286,6 +374,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6A6666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -559,11 +652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -571,105 +664,178 @@
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.08203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="5" max="5" width="30.58203125" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="19">
+        <v>1900000</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="F12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="N13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/resources/template/구매요청양식.xlsx
+++ b/src/main/webapp/resources/template/구매요청양식.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,34 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>user</author>
-  </authors>
-  <commentList>
-    <comment ref="H6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color indexed="81"/>
-            <rFont val="맑은 고딕"/>
-            <family val="3"/>
-            <charset val="129"/>
-            <scheme val="major"/>
-          </rPr>
-          <t>다음과 같이 양식을 작성해주세요.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,19 +46,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>단가(\)</t>
+    <t>삼성 갤럭시북 Pro 4</t>
+  </si>
+  <si>
+    <t>LG 그램 Pro 16</t>
+  </si>
+  <si>
+    <t>맥북 Pro 14 (M3)</t>
+  </si>
+  <si>
+    <t>Dell Latitude 5440</t>
+  </si>
+  <si>
+    <t>ASUS ROG Zephyrus G16</t>
+  </si>
+  <si>
+    <t>LG 울트라파인 27인치</t>
+  </si>
+  <si>
+    <t>삼성 오디세이 G5 (32인치)</t>
+  </si>
+  <si>
+    <t>Dell UltraSharp U2723QE</t>
+  </si>
+  <si>
+    <t>BenQ PD2700U</t>
+  </si>
+  <si>
+    <t>LG 34WP65G (34인치)</t>
+  </si>
+  <si>
+    <t>아이패드 Pro 11 (5세대)</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 탭 S9</t>
+  </si>
+  <si>
+    <t>아이패드 Air (6세대)</t>
+  </si>
+  <si>
+    <t>MS Surface Pro 10</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 탭 A9+</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 S24</t>
+  </si>
+  <si>
+    <t>아이폰 16 Pro</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 Z Fold 6</t>
+  </si>
+  <si>
+    <t>아이폰 15</t>
+  </si>
+  <si>
+    <t>HP OfficeJet Pro 9120</t>
+  </si>
+  <si>
+    <t>Canon imageRUNNER ADV C3922i</t>
+  </si>
+  <si>
+    <t>삼성 컬러 레이저 복합기 CLX-9352ND</t>
+  </si>
+  <si>
+    <t>Brother MFC-L2700D</t>
+  </si>
+  <si>
+    <t>Epson EcoTank L6270</t>
+  </si>
+  <si>
+    <t>개발용 고성능 워크스테이션</t>
+  </si>
+  <si>
+    <t>Mac Studio (M2 Max)</t>
+  </si>
+  <si>
+    <t>삼성 QLED TV (65인치)</t>
+  </si>
+  <si>
+    <t>LG OLED evo TV (77인치)</t>
+  </si>
+  <si>
+    <t>삼성 The Frame TV (55인치)</t>
+  </si>
+  <si>
+    <t>LG QNED TV (50인치)</t>
+  </si>
+  <si>
+    <t>삼성 Crystal UHD TV (75인치)</t>
+  </si>
+  <si>
+    <t>Epson EB-FH52</t>
+  </si>
+  <si>
+    <t>LG CineBeam HF85LA</t>
+  </si>
+  <si>
+    <t>BenQ TH685P</t>
+  </si>
+  <si>
+    <t>삼성 The Premiere LSP7T</t>
+  </si>
+  <si>
+    <t>ViewSonic PA503W</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 A55</t>
+  </si>
+  <si>
+    <t>노트북</t>
+  </si>
+  <si>
+    <t>모니터</t>
+  </si>
+  <si>
+    <t>태블릿</t>
+  </si>
+  <si>
+    <t>스마트폰</t>
+  </si>
+  <si>
+    <t>복합기</t>
+  </si>
+  <si>
+    <t>데스크탑</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>프로젝터</t>
+  </si>
+  <si>
+    <t>사무용 표준 데스크탑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노트북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성 갤럭시북 Pro 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 시작으로 새로운 노트북 구매 필요</t>
+    <t>권장 제품 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,31 +235,15 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="81"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6A6666"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6A6666"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +256,13 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -288,88 +378,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% - 강조색6" xfId="1" builtinId="50"/>
+    <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,11 +834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -664,178 +846,680 @@
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.58203125" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.4140625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1690000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="19">
-        <v>1900000</v>
-      </c>
-      <c r="I2" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="10" t="s">
+      <c r="H7" s="9">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="9">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="F12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="F13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="N13" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="9">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1290000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="9">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="9">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2300000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="9">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="9">
+        <v>599000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="9">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="9">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="9">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="9">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="9">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="9">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="9">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="9">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="9">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="9">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="26">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/webapp/resources/template/구매요청양식.xlsx
+++ b/src/main/webapp/resources/template/구매요청양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungbae Kim\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C465BA-078E-402C-AF1E-FE43B1964DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4490" yWindow="2990" windowWidth="21600" windowHeight="11390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,9 +53,6 @@
     <t>LG 그램 Pro 16</t>
   </si>
   <si>
-    <t>맥북 Pro 14 (M3)</t>
-  </si>
-  <si>
     <t>Dell Latitude 5440</t>
   </si>
   <si>
@@ -64,27 +62,15 @@
     <t>LG 울트라파인 27인치</t>
   </si>
   <si>
-    <t>삼성 오디세이 G5 (32인치)</t>
-  </si>
-  <si>
     <t>Dell UltraSharp U2723QE</t>
   </si>
   <si>
     <t>BenQ PD2700U</t>
   </si>
   <si>
-    <t>LG 34WP65G (34인치)</t>
-  </si>
-  <si>
-    <t>아이패드 Pro 11 (5세대)</t>
-  </si>
-  <si>
     <t>삼성 갤럭시 탭 S9</t>
   </si>
   <si>
-    <t>아이패드 Air (6세대)</t>
-  </si>
-  <si>
     <t>MS Surface Pro 10</t>
   </si>
   <si>
@@ -121,24 +107,6 @@
     <t>개발용 고성능 워크스테이션</t>
   </si>
   <si>
-    <t>Mac Studio (M2 Max)</t>
-  </si>
-  <si>
-    <t>삼성 QLED TV (65인치)</t>
-  </si>
-  <si>
-    <t>LG OLED evo TV (77인치)</t>
-  </si>
-  <si>
-    <t>삼성 The Frame TV (55인치)</t>
-  </si>
-  <si>
-    <t>LG QNED TV (50인치)</t>
-  </si>
-  <si>
-    <t>삼성 Crystal UHD TV (75인치)</t>
-  </si>
-  <si>
     <t>Epson EB-FH52</t>
   </si>
   <si>
@@ -181,18 +149,58 @@
     <t>프로젝터</t>
   </si>
   <si>
+    <t>권장 제품 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥북 Pro 14 M3</t>
+  </si>
+  <si>
+    <t>LG 34WP65G 34인치</t>
+  </si>
+  <si>
+    <t>삼성 오디세이 G5 32인치</t>
+  </si>
+  <si>
+    <t>아이패드 Air 6세대</t>
+  </si>
+  <si>
+    <t>아이패드 Pro 11 5세대</t>
+  </si>
+  <si>
     <t>사무용 표준 데스크탑</t>
+  </si>
+  <si>
+    <t>Mac Studio M2 Max</t>
+  </si>
+  <si>
+    <t>LG OLED evo TV 77인치</t>
+  </si>
+  <si>
+    <t>삼성 The Frame TV 55인치</t>
+  </si>
+  <si>
+    <t>삼성 Crystal UHD TV 75인치</t>
+  </si>
+  <si>
+    <t>LG QNED TV 50인치</t>
+  </si>
+  <si>
+    <t>삼성 QLED TV 65인치</t>
+  </si>
+  <si>
+    <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>권장 제품 목록</t>
+    <t>듀오백 Q1W 메쉬 사무용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -409,15 +417,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -466,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,27 +490,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -521,6 +514,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -539,14 +538,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -834,26 +830,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.4140625" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,171 +865,171 @@
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="12">
         <v>1690000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="8">
         <v>2400000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="4"/>
       <c r="F5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="8">
         <v>1350000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="8">
         <v>2200000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4"/>
       <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>1850000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4"/>
       <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="9">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
         <v>880000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4"/>
       <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="9">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="8">
         <v>750000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4"/>
       <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="9">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="8">
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="4"/>
       <c r="F11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="9">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="8">
         <v>650000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
@@ -1042,471 +1038,480 @@
       <c r="D12" s="20"/>
       <c r="E12" s="4"/>
       <c r="F12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="9">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="8">
         <v>420000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="4"/>
       <c r="F13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="9">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="8">
         <v>800000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>1290000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="9">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="8">
         <v>350000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="9">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="8">
         <v>1500000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="9">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8">
         <v>990000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="9">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="8">
         <v>2300000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="9">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="8">
         <v>1150000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="9">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8">
         <v>1050000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="9">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8">
         <v>1800000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="9">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="8">
         <v>599000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="9">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="8">
         <v>250000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="9">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="8">
         <v>450000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="9">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="8">
         <v>380000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="9">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="8">
         <v>3500000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="9">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8">
         <v>2800000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="9">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="8">
         <v>850000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="9">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="8">
         <v>2500000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="9">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="8">
         <v>3500000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="9">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="8">
         <v>3200000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <v>1200000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="9">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="8">
         <v>1050000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="9">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="8">
         <v>850000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="9">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="8">
         <v>1500000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="9">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="8">
         <v>450000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="9">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8">
         <v>2800000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="9">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="8">
         <v>1550000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="9">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="8">
         <v>1100000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="25" t="s">
+      <c r="F40" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="26">
+      <c r="G40" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="8">
         <v>800000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" s="17">
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
